--- a/r5-ELGA-MOPED-108-value-sets-fertigstellen/StructureDefinition-moped-ext-ErrorWarning.xlsx
+++ b/r5-ELGA-MOPED-108-value-sets-fertigstellen/StructureDefinition-moped-ext-ErrorWarning.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T07:08:41+00:00</t>
+    <t>2024-10-11T07:04:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
